--- a/fungi/deep_subsurface/deep_subsurface_fungi.xlsx
+++ b/fungi/deep_subsurface/deep_subsurface_fungi.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sinclair &amp; Ghiorse" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Pedersen &amp; Ekendahl" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="rRNA hybridization" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -84,6 +85,33 @@
   </si>
   <si>
     <t xml:space="preserve">KAS04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of eukaryotes out of total rRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aem.asm.org/cgi/pmidlookup?view=long&amp;pmid=9097447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from Table 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organ et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aem.asm.org/content/61/2/763.full.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from Tables 1 and 3</t>
   </si>
 </sst>
 </file>
@@ -159,13 +187,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -192,9 +224,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -442,8 +471,230 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>558</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>391000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>680</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>463</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>860</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>860</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E9"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -451,199 +702,140 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>420</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1750000</v>
+      <c r="A3" s="2" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
+      <c r="A4" s="2" t="n">
+        <v>316</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>522</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>390000</v>
+        <v>0.144</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
+      <c r="A5" s="2" t="n">
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>558</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>391000</v>
+        <v>0.156</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>16</v>
+      <c r="A6" s="0" t="n">
+        <v>174</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>635</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>150000</v>
+        <v>0.261</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>17</v>
+      <c r="A7" s="0" t="n">
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>272</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>205000</v>
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
+      <c r="A8" s="0" t="n">
+        <v>194</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>466</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>110000</v>
+        <v>0.157</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
+      <c r="A9" s="0" t="n">
+        <v>217</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>680</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>314</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>463</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>304000</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>860</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>86000</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>195000</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>860</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>223000</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>195</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>539000</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>248000</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>380</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>75000</v>
+        <v>0.063</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
